--- a/Problem Statement 1 - Year of Graduation Data/Calculation for Year of Graduation.xlsx
+++ b/Problem Statement 1 - Year of Graduation Data/Calculation for Year of Graduation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RASHEED\Desktop\project\Prediction of Placement Status Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RASHEED\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D6B576-7CD9-4C26-84C8-A1C45E33165F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36FE43F-40B2-4A3F-9D83-6573AE6A190B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19311,7 +19311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2809"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C277" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
